--- a/m7/Lemon_Tree/FurureLoan/utils/do_excel/test_case.xlsx
+++ b/m7/Lemon_Tree/FurureLoan/utils/do_excel/test_case.xlsx
@@ -1,83 +1,51 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10410"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mac/Documents/wxPythonCode/m7/Lemon_Tree/FurureLoan/utils/do_excel/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{228D6335-2A2C-0546-A0BE-D9657B370F15}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16680" xr2:uid="{8CB26F0D-F33B-EC41-8271-41EA0E9C64B1}"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="15990" windowWidth="25440" xWindow="0" yWindow="465"/>
   </bookViews>
   <sheets>
-    <sheet name="login" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="register" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="login" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="recharge" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <definedNames/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
-  <si>
-    <t>case_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>case_title</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>case_data</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>case_expected</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"mobilephone":"18611848257","pwd":"nishi458","regname":"乐乐"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>正常注册用户，返回10001状态码</t>
-    <rPh sb="0" eb="2">
-      <t>zheng'chan</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="3">
     <font>
+      <name val="等线"/>
+      <charset val="134"/>
+      <family val="2"/>
+      <color theme="1"/>
       <sz val="12"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <family val="2"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <name val="等线"/>
+      <charset val="134"/>
+      <family val="2"/>
       <sz val="9"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <name val="等线"/>
-      <family val="2"/>
       <charset val="134"/>
+      <b val="1"/>
+      <color theme="1"/>
+      <sz val="12"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -93,28 +61,38 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+  <cellXfs count="8">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="常规" xfId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
 </styleSheet>
 </file>
 
@@ -126,7 +104,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="CCE8CF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -161,7 +139,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -213,7 +191,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -407,57 +385,497 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A04F342A-4A75-E841-8D08-C73F8768DDC0}">
-  <dimension ref="A1:D2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="173" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" workbookViewId="0" zoomScale="115" zoomScaleNormal="115">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="11" defaultRowHeight="14.25"/>
   <cols>
-    <col min="2" max="2" width="33.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="65" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.6640625" customWidth="1"/>
+    <col customWidth="1" max="1" min="1" style="3" width="11"/>
+    <col bestFit="1" customWidth="1" max="2" min="2" style="7" width="33.5"/>
+    <col bestFit="1" customWidth="1" max="3" min="3" style="7" width="80.5"/>
+    <col customWidth="1" max="4" min="4" style="2" width="18.625"/>
+    <col customWidth="1" max="5" min="5" style="7" width="19.25"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
+    <row customFormat="1" r="1" s="5">
+      <c r="A1" s="4" t="inlineStr">
+        <is>
+          <t>case_id</t>
+        </is>
+      </c>
+      <c r="B1" s="5" t="inlineStr">
+        <is>
+          <t>case_title</t>
+        </is>
+      </c>
+      <c r="C1" s="5" t="inlineStr">
+        <is>
+          <t>case_data</t>
+        </is>
+      </c>
+      <c r="D1" s="6" t="inlineStr">
+        <is>
+          <t>case_expected</t>
+        </is>
+      </c>
+      <c r="E1" s="5" t="inlineStr">
+        <is>
+          <t>result</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="B2" s="0" t="inlineStr">
+        <is>
+          <t>正确手机号和正确密码注册</t>
+        </is>
+      </c>
+      <c r="C2" s="1" t="inlineStr">
+        <is>
+          <t>{'mobilephone':'18611848257','pwd':'nishi458','regname':'乐乐'}</t>
+        </is>
+      </c>
+      <c r="D2" s="2" t="n">
+        <v>10001</v>
+      </c>
+      <c r="E2" s="0" t="inlineStr">
+        <is>
+          <t>20110</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="3" t="n">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="B3" s="0" t="inlineStr">
+        <is>
+          <t>输入已注册的手机号注册</t>
+        </is>
+      </c>
+      <c r="C3" s="1" t="inlineStr">
+        <is>
+          <t>{'mobilephone':'18611848257','pwd':'nishi458','regname':'乐乐'}</t>
+        </is>
+      </c>
+      <c r="D3" s="2" t="n">
+        <v>20110</v>
+      </c>
+      <c r="E3" s="0" t="inlineStr">
+        <is>
+          <t>20110</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="3" t="n">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2">
+      <c r="B4" s="0" t="inlineStr">
+        <is>
+          <t>输入错误格式的手机号注册</t>
+        </is>
+      </c>
+      <c r="C4" s="1" t="inlineStr">
+        <is>
+          <t>{'mobilephone':'1861184825','pwd':'nishi458','regname':'乐乐'}</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="n">
+        <v>20109</v>
+      </c>
+      <c r="E4" s="0" t="inlineStr">
+        <is>
+          <t>20109</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" s="0" t="inlineStr">
+        <is>
+          <t>输入不足6位的密码</t>
+        </is>
+      </c>
+      <c r="C5" s="1" t="inlineStr">
+        <is>
+          <t>{'mobilephone':'13810504359','pwd':'123456','regname':'乐乐'}</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="n">
+        <v>20108</v>
+      </c>
+      <c r="E5" s="0" t="inlineStr">
+        <is>
+          <t>20110</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" s="0" t="inlineStr">
+        <is>
+          <t>不输入用户名，不输入密码注册</t>
+        </is>
+      </c>
+      <c r="C6" s="1" t="inlineStr">
+        <is>
+          <t>{'mobilephone':'','pwd':'','regname':'乐乐'}</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="n">
+        <v>20103</v>
+      </c>
+      <c r="E6" s="0" t="inlineStr">
+        <is>
+          <t>20103</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="portrait" paperSize="9"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.25"/>
+  <cols>
+    <col customWidth="1" max="2" min="2" style="7" width="36.875"/>
+    <col bestFit="1" customWidth="1" max="3" min="3" style="7" width="70.5"/>
+    <col bestFit="1" customWidth="1" max="4" min="4" style="7" width="15"/>
+    <col customWidth="1" max="5" min="5" style="7" width="19.25"/>
+  </cols>
+  <sheetData>
+    <row customHeight="1" ht="19.5" r="1" s="7">
+      <c r="A1" s="4" t="inlineStr">
+        <is>
+          <t>case_id</t>
+        </is>
+      </c>
+      <c r="B1" s="5" t="inlineStr">
+        <is>
+          <t>case_title</t>
+        </is>
+      </c>
+      <c r="C1" s="5" t="inlineStr">
+        <is>
+          <t>case_data</t>
+        </is>
+      </c>
+      <c r="D1" s="6" t="inlineStr">
+        <is>
+          <t>case_expected</t>
+        </is>
+      </c>
+      <c r="E1" s="5" t="inlineStr">
+        <is>
+          <t>result</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="19.5" r="2" s="7">
+      <c r="A2" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="0" t="inlineStr">
+        <is>
+          <t>输入正确的用户名和密码登录</t>
+        </is>
+      </c>
+      <c r="C2" s="1" t="inlineStr">
+        <is>
+          <t>{'mobilephone':'18611848257','pwd':'nishi458'}</t>
+        </is>
+      </c>
+      <c r="D2" s="2" t="n">
+        <v>10001</v>
+      </c>
+      <c r="E2" s="0" t="inlineStr">
+        <is>
+          <t>10001</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="19.5" r="3" s="7">
+      <c r="A3" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" s="0" t="inlineStr">
+        <is>
+          <t>输入正确的用户名和错误的密码登录</t>
+        </is>
+      </c>
+      <c r="C3" s="1" t="inlineStr">
+        <is>
+          <t>{'mobilephone':'18611848257','pwd':'nishi459'}</t>
+        </is>
+      </c>
+      <c r="D3" s="2" t="n">
+        <v>20111</v>
+      </c>
+      <c r="E3" s="0" t="inlineStr">
+        <is>
+          <t>20111</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="19.5" r="4" s="7">
+      <c r="A4" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" s="0" t="inlineStr">
+        <is>
+          <t>输入错误的用户名和正确的密码登录</t>
+        </is>
+      </c>
+      <c r="C4" s="1" t="inlineStr">
+        <is>
+          <t>{'mobilephone':'1861184825','pwd':'nishi458'}</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="n">
+        <v>20111</v>
+      </c>
+      <c r="E4" s="0" t="inlineStr">
+        <is>
+          <t>20111</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="19.5" r="5" s="7">
+      <c r="A5" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" s="0" t="inlineStr">
+        <is>
+          <t>只输入用户名登录</t>
+        </is>
+      </c>
+      <c r="C5" s="1" t="inlineStr">
+        <is>
+          <t>{'mobilephone':'1861184825','pwd':''}</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="n">
+        <v>20103</v>
+      </c>
+      <c r="E5" s="0" t="inlineStr">
+        <is>
+          <t>20103</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="19.5" r="6" s="7">
+      <c r="A6" s="3" t="n">
         <v>5</v>
       </c>
-      <c r="C2" t="s">
+      <c r="B6" s="0" t="inlineStr">
+        <is>
+          <t>只输入密码登录</t>
+        </is>
+      </c>
+      <c r="C6" s="1" t="inlineStr">
+        <is>
+          <t>{'mobilephone':'','pwd':'nishi458'}</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="n">
+        <v>20103</v>
+      </c>
+      <c r="E6" s="0" t="inlineStr">
+        <is>
+          <t>20103</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.25"/>
+  <cols>
+    <col customWidth="1" max="2" min="2" style="7" width="39.25"/>
+    <col customWidth="1" max="3" min="3" style="7" width="73.875"/>
+    <col customWidth="1" max="4" min="4" style="7" width="16.875"/>
+    <col customWidth="1" max="5" min="5" style="7" width="19.25"/>
+  </cols>
+  <sheetData>
+    <row customFormat="1" customHeight="1" ht="18" r="1" s="5">
+      <c r="A1" s="4" t="inlineStr">
+        <is>
+          <t>case_id</t>
+        </is>
+      </c>
+      <c r="B1" s="5" t="inlineStr">
+        <is>
+          <t>case_title</t>
+        </is>
+      </c>
+      <c r="C1" s="5" t="inlineStr">
+        <is>
+          <t>case_data</t>
+        </is>
+      </c>
+      <c r="D1" s="6" t="inlineStr">
+        <is>
+          <t>case_expected</t>
+        </is>
+      </c>
+      <c r="E1" s="5" t="inlineStr">
+        <is>
+          <t>result</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="18" r="2" s="7">
+      <c r="A2" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" s="0" t="inlineStr">
+        <is>
+          <t>正确手机号和正确金额充值</t>
+        </is>
+      </c>
+      <c r="C2" s="1" t="inlineStr">
+        <is>
+          <t>{'mobilephone':'18611848257','amount':'200000'}</t>
+        </is>
+      </c>
+      <c r="D2" s="2" t="n">
+        <v>10001</v>
+      </c>
+      <c r="E2" s="0" t="inlineStr">
+        <is>
+          <t>10001</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="18" r="3" s="7">
+      <c r="A3" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" s="0" t="inlineStr">
+        <is>
+          <t>输入不存在的手机号充值</t>
+        </is>
+      </c>
+      <c r="C3" s="1" t="inlineStr">
+        <is>
+          <t>{'mobilephone':'18611848258','amount':'200000'}</t>
+        </is>
+      </c>
+      <c r="D3" s="2" t="n">
+        <v>20104</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="18" r="4" s="7">
+      <c r="A4" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" s="0" t="inlineStr">
+        <is>
+          <t>不输入手机号充值</t>
+        </is>
+      </c>
+      <c r="C4" s="1" t="inlineStr">
+        <is>
+          <t>{'mobilephone':'','amount':'200000'}</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="n">
+        <v>20103</v>
+      </c>
+      <c r="E4" s="0" t="inlineStr">
+        <is>
+          <t>20103</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="18" r="5" s="7">
+      <c r="A5" s="3" t="n">
         <v>4</v>
       </c>
-      <c r="D2">
+      <c r="B5" s="0" t="inlineStr">
+        <is>
+          <t>金额为0充值</t>
+        </is>
+      </c>
+      <c r="C5" s="1" t="inlineStr">
+        <is>
+          <t>{'mobilephone':'18611848257','amount':'0'}</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="n">
         <v>10001</v>
       </c>
     </row>
+    <row customHeight="1" ht="18" r="6" s="7">
+      <c r="A6" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" s="0" t="inlineStr">
+        <is>
+          <t>金额为51万充值</t>
+        </is>
+      </c>
+      <c r="C6" s="1" t="inlineStr">
+        <is>
+          <t>{'mobilephone':'18611848257','amount':'510000'}</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="n">
+        <v>20117</v>
+      </c>
+    </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
--- a/m7/Lemon_Tree/FurureLoan/utils/do_excel/test_case.xlsx
+++ b/m7/Lemon_Tree/FurureLoan/utils/do_excel/test_case.xlsx
@@ -1,51 +1,178 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10410"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mac/Documents/wxPythonCode/m7/Lemon_Tree/FurureLoan/utils/do_excel/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{03B625F2-9045-834A-8EEE-65BA36A94ACB}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="15990" windowWidth="25440" xWindow="0" yWindow="465"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25440" windowHeight="16000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="register" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="login" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="recharge" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="register" sheetId="1" r:id="rId1"/>
+    <sheet name="login" sheetId="2" r:id="rId2"/>
+    <sheet name="recharge" sheetId="3" r:id="rId3"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="39">
+  <si>
+    <t>case_id</t>
+  </si>
+  <si>
+    <t>case_title</t>
+  </si>
+  <si>
+    <t>case_data</t>
+  </si>
+  <si>
+    <t>case_expected</t>
+  </si>
+  <si>
+    <t>result</t>
+  </si>
+  <si>
+    <t>正确手机号和正确密码注册</t>
+  </si>
+  <si>
+    <t>{'mobilephone':'18611848257','pwd':'nishi458','regname':'乐乐'}</t>
+  </si>
+  <si>
+    <t>20110</t>
+  </si>
+  <si>
+    <t>输入已注册的手机号注册</t>
+  </si>
+  <si>
+    <t>输入错误格式的手机号注册</t>
+  </si>
+  <si>
+    <t>{'mobilephone':'1861184825','pwd':'nishi458','regname':'乐乐'}</t>
+  </si>
+  <si>
+    <t>20109</t>
+  </si>
+  <si>
+    <t>输入不足6位的密码</t>
+  </si>
+  <si>
+    <t>{'mobilephone':'13810504359','pwd':'123456','regname':'乐乐'}</t>
+  </si>
+  <si>
+    <t>不输入用户名，不输入密码注册</t>
+  </si>
+  <si>
+    <t>{'mobilephone':'','pwd':'','regname':'乐乐'}</t>
+  </si>
+  <si>
+    <t>20103</t>
+  </si>
+  <si>
+    <t>输入正确的用户名和密码登录</t>
+  </si>
+  <si>
+    <t>{'mobilephone':'18611848257','pwd':'nishi458'}</t>
+  </si>
+  <si>
+    <t>10001</t>
+  </si>
+  <si>
+    <t>输入正确的用户名和错误的密码登录</t>
+  </si>
+  <si>
+    <t>{'mobilephone':'18611848257','pwd':'nishi459'}</t>
+  </si>
+  <si>
+    <t>20111</t>
+  </si>
+  <si>
+    <t>输入错误的用户名和正确的密码登录</t>
+  </si>
+  <si>
+    <t>{'mobilephone':'1861184825','pwd':'nishi458'}</t>
+  </si>
+  <si>
+    <t>只输入用户名登录</t>
+  </si>
+  <si>
+    <t>{'mobilephone':'1861184825','pwd':''}</t>
+  </si>
+  <si>
+    <t>只输入密码登录</t>
+  </si>
+  <si>
+    <t>{'mobilephone':'','pwd':'nishi458'}</t>
+  </si>
+  <si>
+    <t>正确手机号和正确金额充值</t>
+  </si>
+  <si>
+    <t>{'mobilephone':'18611848257','amount':'200000'}</t>
+  </si>
+  <si>
+    <t>输入不存在的手机号充值</t>
+  </si>
+  <si>
+    <t>{'mobilephone':'18611848258','amount':'200000'}</t>
+  </si>
+  <si>
+    <t>不输入手机号充值</t>
+  </si>
+  <si>
+    <t>{'mobilephone':'','amount':'200000'}</t>
+  </si>
+  <si>
+    <t>金额为0充值</t>
+  </si>
+  <si>
+    <t>{'mobilephone':'18611848257','amount':'0'}</t>
+  </si>
+  <si>
+    <t>金额为51万充值</t>
+  </si>
+  <si>
+    <t>{'mobilephone':'18611848257','amount':'510000'}</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3">
     <font>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="等线"/>
+      <family val="2"/>
       <charset val="134"/>
-      <family val="2"/>
-      <color theme="1"/>
-      <sz val="12"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="9"/>
       <name val="等线"/>
+      <family val="2"/>
       <charset val="134"/>
-      <family val="2"/>
-      <sz val="9"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="134"/>
-      <b val="1"/>
-      <color theme="1"/>
-      <sz val="12"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -61,38 +188,47 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="8">
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="常规" xfId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -385,497 +521,374 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" zoomScale="115" zoomScaleNormal="115">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="11" defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="3" width="11"/>
-    <col bestFit="1" customWidth="1" max="2" min="2" style="7" width="33.5"/>
-    <col bestFit="1" customWidth="1" max="3" min="3" style="7" width="80.5"/>
-    <col customWidth="1" max="4" min="4" style="2" width="18.625"/>
-    <col customWidth="1" max="5" min="5" style="7" width="19.25"/>
+    <col min="1" max="1" width="11" style="3" customWidth="1"/>
+    <col min="2" max="2" width="33.5" style="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="80.5" style="7" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.6640625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="19.1640625" style="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row customFormat="1" r="1" s="5">
-      <c r="A1" s="4" t="inlineStr">
-        <is>
-          <t>case_id</t>
-        </is>
-      </c>
-      <c r="B1" s="5" t="inlineStr">
-        <is>
-          <t>case_title</t>
-        </is>
-      </c>
-      <c r="C1" s="5" t="inlineStr">
-        <is>
-          <t>case_data</t>
-        </is>
-      </c>
-      <c r="D1" s="6" t="inlineStr">
-        <is>
-          <t>case_expected</t>
-        </is>
-      </c>
-      <c r="E1" s="5" t="inlineStr">
-        <is>
-          <t>result</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="3" t="n">
+    <row r="1" spans="1:5" s="5" customFormat="1">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="0" t="inlineStr">
-        <is>
-          <t>正确手机号和正确密码注册</t>
-        </is>
-      </c>
-      <c r="C2" s="1" t="inlineStr">
-        <is>
-          <t>{'mobilephone':'18611848257','pwd':'nishi458','regname':'乐乐'}</t>
-        </is>
-      </c>
-      <c r="D2" s="2" t="n">
+      <c r="C1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="3">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="2">
         <v>10001</v>
       </c>
-      <c r="E2" s="0" t="inlineStr">
-        <is>
-          <t>20110</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="3" t="n">
+      <c r="E2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="3">
         <v>2</v>
       </c>
-      <c r="B3" s="0" t="inlineStr">
-        <is>
-          <t>输入已注册的手机号注册</t>
-        </is>
-      </c>
-      <c r="C3" s="1" t="inlineStr">
-        <is>
-          <t>{'mobilephone':'18611848257','pwd':'nishi458','regname':'乐乐'}</t>
-        </is>
-      </c>
-      <c r="D3" s="2" t="n">
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="2">
         <v>20110</v>
       </c>
-      <c r="E3" s="0" t="inlineStr">
-        <is>
-          <t>20110</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="3" t="n">
+      <c r="E3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="3">
         <v>3</v>
       </c>
-      <c r="B4" s="0" t="inlineStr">
-        <is>
-          <t>输入错误格式的手机号注册</t>
-        </is>
-      </c>
-      <c r="C4" s="1" t="inlineStr">
-        <is>
-          <t>{'mobilephone':'1861184825','pwd':'nishi458','regname':'乐乐'}</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="n">
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="2">
         <v>20109</v>
       </c>
-      <c r="E4" s="0" t="inlineStr">
-        <is>
-          <t>20109</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="3" t="n">
+      <c r="E4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="3">
         <v>4</v>
       </c>
-      <c r="B5" s="0" t="inlineStr">
-        <is>
-          <t>输入不足6位的密码</t>
-        </is>
-      </c>
-      <c r="C5" s="1" t="inlineStr">
-        <is>
-          <t>{'mobilephone':'13810504359','pwd':'123456','regname':'乐乐'}</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="n">
+      <c r="B5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="2">
         <v>20108</v>
       </c>
-      <c r="E5" s="0" t="inlineStr">
-        <is>
-          <t>20110</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
+      <c r="E5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="3">
         <v>5</v>
       </c>
-      <c r="B6" s="0" t="inlineStr">
-        <is>
-          <t>不输入用户名，不输入密码注册</t>
-        </is>
-      </c>
-      <c r="C6" s="1" t="inlineStr">
-        <is>
-          <t>{'mobilephone':'','pwd':'','regname':'乐乐'}</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="n">
+      <c r="B6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="2">
         <v>20103</v>
       </c>
-      <c r="E6" s="0" t="inlineStr">
-        <is>
-          <t>20103</t>
-        </is>
+      <c r="E6" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup orientation="portrait" paperSize="9"/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
   <cols>
-    <col customWidth="1" max="2" min="2" style="7" width="36.875"/>
-    <col bestFit="1" customWidth="1" max="3" min="3" style="7" width="70.5"/>
-    <col bestFit="1" customWidth="1" max="4" min="4" style="7" width="15"/>
-    <col customWidth="1" max="5" min="5" style="7" width="19.25"/>
+    <col min="2" max="2" width="36.83203125" style="7" customWidth="1"/>
+    <col min="3" max="3" width="70.5" style="7" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15" style="7" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.1640625" style="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row customHeight="1" ht="19.5" r="1" s="7">
-      <c r="A1" s="4" t="inlineStr">
-        <is>
-          <t>case_id</t>
-        </is>
-      </c>
-      <c r="B1" s="5" t="inlineStr">
-        <is>
-          <t>case_title</t>
-        </is>
-      </c>
-      <c r="C1" s="5" t="inlineStr">
-        <is>
-          <t>case_data</t>
-        </is>
-      </c>
-      <c r="D1" s="6" t="inlineStr">
-        <is>
-          <t>case_expected</t>
-        </is>
-      </c>
-      <c r="E1" s="5" t="inlineStr">
-        <is>
-          <t>result</t>
-        </is>
-      </c>
-    </row>
-    <row customHeight="1" ht="19.5" r="2" s="7">
-      <c r="A2" s="3" t="n">
+    <row r="1" spans="1:5" ht="19.5" customHeight="1">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="0" t="inlineStr">
-        <is>
-          <t>输入正确的用户名和密码登录</t>
-        </is>
-      </c>
-      <c r="C2" s="1" t="inlineStr">
-        <is>
-          <t>{'mobilephone':'18611848257','pwd':'nishi458'}</t>
-        </is>
-      </c>
-      <c r="D2" s="2" t="n">
+      <c r="C1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="19.5" customHeight="1">
+      <c r="A2" s="3">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" s="2">
         <v>10001</v>
       </c>
-      <c r="E2" s="0" t="inlineStr">
-        <is>
-          <t>10001</t>
-        </is>
-      </c>
-    </row>
-    <row customHeight="1" ht="19.5" r="3" s="7">
-      <c r="A3" s="3" t="n">
+      <c r="E2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="19.5" customHeight="1">
+      <c r="A3" s="3">
         <v>2</v>
       </c>
-      <c r="B3" s="0" t="inlineStr">
-        <is>
-          <t>输入正确的用户名和错误的密码登录</t>
-        </is>
-      </c>
-      <c r="C3" s="1" t="inlineStr">
-        <is>
-          <t>{'mobilephone':'18611848257','pwd':'nishi459'}</t>
-        </is>
-      </c>
-      <c r="D3" s="2" t="n">
+      <c r="B3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" s="2">
         <v>20111</v>
       </c>
-      <c r="E3" s="0" t="inlineStr">
-        <is>
-          <t>20111</t>
-        </is>
-      </c>
-    </row>
-    <row customHeight="1" ht="19.5" r="4" s="7">
-      <c r="A4" s="3" t="n">
+      <c r="E3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="19.5" customHeight="1">
+      <c r="A4" s="3">
         <v>3</v>
       </c>
-      <c r="B4" s="0" t="inlineStr">
-        <is>
-          <t>输入错误的用户名和正确的密码登录</t>
-        </is>
-      </c>
-      <c r="C4" s="1" t="inlineStr">
-        <is>
-          <t>{'mobilephone':'1861184825','pwd':'nishi458'}</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="n">
+      <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" s="2">
         <v>20111</v>
       </c>
-      <c r="E4" s="0" t="inlineStr">
-        <is>
-          <t>20111</t>
-        </is>
-      </c>
-    </row>
-    <row customHeight="1" ht="19.5" r="5" s="7">
-      <c r="A5" s="3" t="n">
+      <c r="E4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="19.5" customHeight="1">
+      <c r="A5" s="3">
         <v>4</v>
       </c>
-      <c r="B5" s="0" t="inlineStr">
-        <is>
-          <t>只输入用户名登录</t>
-        </is>
-      </c>
-      <c r="C5" s="1" t="inlineStr">
-        <is>
-          <t>{'mobilephone':'1861184825','pwd':''}</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="n">
+      <c r="B5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" s="2">
         <v>20103</v>
       </c>
-      <c r="E5" s="0" t="inlineStr">
-        <is>
-          <t>20103</t>
-        </is>
-      </c>
-    </row>
-    <row customHeight="1" ht="19.5" r="6" s="7">
-      <c r="A6" s="3" t="n">
+      <c r="E5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="19.5" customHeight="1">
+      <c r="A6" s="3">
         <v>5</v>
       </c>
-      <c r="B6" s="0" t="inlineStr">
-        <is>
-          <t>只输入密码登录</t>
-        </is>
-      </c>
-      <c r="C6" s="1" t="inlineStr">
-        <is>
-          <t>{'mobilephone':'','pwd':'nishi458'}</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="n">
+      <c r="B6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D6" s="2">
         <v>20103</v>
       </c>
-      <c r="E6" s="0" t="inlineStr">
-        <is>
-          <t>20103</t>
-        </is>
+      <c r="E6" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
   <cols>
-    <col customWidth="1" max="2" min="2" style="7" width="39.25"/>
-    <col customWidth="1" max="3" min="3" style="7" width="73.875"/>
-    <col customWidth="1" max="4" min="4" style="7" width="16.875"/>
-    <col customWidth="1" max="5" min="5" style="7" width="19.25"/>
+    <col min="2" max="2" width="39.1640625" style="7" customWidth="1"/>
+    <col min="3" max="3" width="73.83203125" style="7" customWidth="1"/>
+    <col min="4" max="4" width="16.83203125" style="7" customWidth="1"/>
+    <col min="5" max="5" width="19.1640625" style="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row customFormat="1" customHeight="1" ht="18" r="1" s="5">
-      <c r="A1" s="4" t="inlineStr">
-        <is>
-          <t>case_id</t>
-        </is>
-      </c>
-      <c r="B1" s="5" t="inlineStr">
-        <is>
-          <t>case_title</t>
-        </is>
-      </c>
-      <c r="C1" s="5" t="inlineStr">
-        <is>
-          <t>case_data</t>
-        </is>
-      </c>
-      <c r="D1" s="6" t="inlineStr">
-        <is>
-          <t>case_expected</t>
-        </is>
-      </c>
-      <c r="E1" s="5" t="inlineStr">
-        <is>
-          <t>result</t>
-        </is>
-      </c>
-    </row>
-    <row customHeight="1" ht="18" r="2" s="7">
-      <c r="A2" s="3" t="n">
+    <row r="1" spans="1:5" s="5" customFormat="1" ht="18" customHeight="1">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="0" t="inlineStr">
-        <is>
-          <t>正确手机号和正确金额充值</t>
-        </is>
-      </c>
-      <c r="C2" s="1" t="inlineStr">
-        <is>
-          <t>{'mobilephone':'18611848257','amount':'200000'}</t>
-        </is>
-      </c>
-      <c r="D2" s="2" t="n">
+      <c r="C1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="18" customHeight="1">
+      <c r="A2" s="3">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D2" s="2">
         <v>10001</v>
       </c>
-      <c r="E2" s="0" t="inlineStr">
-        <is>
-          <t>10001</t>
-        </is>
-      </c>
-    </row>
-    <row customHeight="1" ht="18" r="3" s="7">
-      <c r="A3" s="3" t="n">
+      <c r="E2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="18" customHeight="1">
+      <c r="A3" s="3">
         <v>2</v>
       </c>
-      <c r="B3" s="0" t="inlineStr">
-        <is>
-          <t>输入不存在的手机号充值</t>
-        </is>
-      </c>
-      <c r="C3" s="1" t="inlineStr">
-        <is>
-          <t>{'mobilephone':'18611848258','amount':'200000'}</t>
-        </is>
-      </c>
-      <c r="D3" s="2" t="n">
+      <c r="B3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D3" s="2">
         <v>20104</v>
       </c>
     </row>
-    <row customHeight="1" ht="18" r="4" s="7">
-      <c r="A4" s="3" t="n">
+    <row r="4" spans="1:5" ht="18" customHeight="1">
+      <c r="A4" s="3">
         <v>3</v>
       </c>
-      <c r="B4" s="0" t="inlineStr">
-        <is>
-          <t>不输入手机号充值</t>
-        </is>
-      </c>
-      <c r="C4" s="1" t="inlineStr">
-        <is>
-          <t>{'mobilephone':'','amount':'200000'}</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="n">
+      <c r="B4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D4" s="2">
         <v>20103</v>
       </c>
-      <c r="E4" s="0" t="inlineStr">
-        <is>
-          <t>20103</t>
-        </is>
-      </c>
-    </row>
-    <row customHeight="1" ht="18" r="5" s="7">
-      <c r="A5" s="3" t="n">
+      <c r="E4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="18" customHeight="1">
+      <c r="A5" s="3">
         <v>4</v>
       </c>
-      <c r="B5" s="0" t="inlineStr">
-        <is>
-          <t>金额为0充值</t>
-        </is>
-      </c>
-      <c r="C5" s="1" t="inlineStr">
-        <is>
-          <t>{'mobilephone':'18611848257','amount':'0'}</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="n">
+      <c r="B5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D5" s="2">
         <v>10001</v>
       </c>
     </row>
-    <row customHeight="1" ht="18" r="6" s="7">
-      <c r="A6" s="3" t="n">
+    <row r="6" spans="1:5" ht="18" customHeight="1">
+      <c r="A6" s="3">
         <v>5</v>
       </c>
-      <c r="B6" s="0" t="inlineStr">
-        <is>
-          <t>金额为51万充值</t>
-        </is>
-      </c>
-      <c r="C6" s="1" t="inlineStr">
-        <is>
-          <t>{'mobilephone':'18611848257','amount':'510000'}</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="n">
+      <c r="B6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D6" s="2">
         <v>20117</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup orientation="portrait" paperSize="9"/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
 </file>
--- a/m7/Lemon_Tree/FurureLoan/utils/do_excel/test_case.xlsx
+++ b/m7/Lemon_Tree/FurureLoan/utils/do_excel/test_case.xlsx
@@ -1,28 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10410"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mac/Documents/wxPythonCode/m7/Lemon_Tree/FurureLoan/utils/do_excel/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{03B625F2-9045-834A-8EEE-65BA36A94ACB}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25440" windowHeight="16000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="25440" windowHeight="15990" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="register" sheetId="1" r:id="rId1"/>
     <sheet name="login" sheetId="2" r:id="rId2"/>
     <sheet name="recharge" sheetId="3" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">register!$A$1:$F$6</definedName>
+  </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="42">
   <si>
     <t>case_id</t>
   </si>
@@ -48,9 +45,15 @@
     <t>20110</t>
   </si>
   <si>
+    <t>FAIL</t>
+  </si>
+  <si>
     <t>输入已注册的手机号注册</t>
   </si>
   <si>
+    <t>PASS</t>
+  </si>
+  <si>
     <t>输入错误格式的手机号注册</t>
   </si>
   <si>
@@ -121,6 +124,9 @@
   </si>
   <si>
     <t>{'mobilephone':'18611848258','amount':'200000'}</t>
+  </si>
+  <si>
+    <t>20104</t>
   </si>
   <si>
     <t>不输入手机号充值</t>
@@ -144,7 +150,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="3">
     <font>
       <sz val="12"/>
@@ -221,12 +227,77 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -521,30 +592,31 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="11" style="3" customWidth="1"/>
     <col min="2" max="2" width="33.5" style="7" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="80.5" style="7" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.6640625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="19.1640625" style="7" customWidth="1"/>
+    <col min="4" max="4" width="18.625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="19.125" style="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="5" customFormat="1">
+    <row r="1" spans="1:6" s="5" customFormat="1">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -561,7 +633,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:6">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -577,13 +649,16 @@
       <c r="E2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="3" spans="1:5">
+      <c r="F2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" hidden="1">
       <c r="A3" s="3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>6</v>
@@ -594,33 +669,39 @@
       <c r="E3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="4" spans="1:5">
+      <c r="F3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" hidden="1">
       <c r="A4" s="3">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D4" s="2">
         <v>20109</v>
       </c>
       <c r="E4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>13</v>
+      </c>
+      <c r="F4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="3">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D5" s="2">
         <v>20108</v>
@@ -628,25 +709,38 @@
       <c r="E5" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="F5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" hidden="1">
       <c r="A6" s="3">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D6" s="2">
         <v>20103</v>
       </c>
       <c r="E6" t="s">
-        <v>16</v>
+        <v>18</v>
+      </c>
+      <c r="F6" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:F6">
+    <filterColumn colId="5">
+      <filters>
+        <filter val="FAIL"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -654,22 +748,22 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:E6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="E2" sqref="E2:E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
   <cols>
-    <col min="2" max="2" width="36.83203125" style="7" customWidth="1"/>
+    <col min="2" max="2" width="36.875" style="7" customWidth="1"/>
     <col min="3" max="3" width="70.5" style="7" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15" style="7" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.1640625" style="7" customWidth="1"/>
+    <col min="5" max="5" width="19.125" style="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="19.5" customHeight="1">
+    <row r="1" spans="1:6" ht="19.5" customHeight="1">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -686,90 +780,100 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="19.5" customHeight="1">
+    <row r="2" spans="1:6" ht="19.5" customHeight="1">
       <c r="A2" s="3">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D2" s="2">
         <v>10001</v>
       </c>
       <c r="E2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="19.5" customHeight="1">
+        <v>21</v>
+      </c>
+      <c r="F2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="19.5" customHeight="1">
       <c r="A3" s="3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D3" s="2">
         <v>20111</v>
       </c>
       <c r="E3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="19.5" customHeight="1">
+        <v>24</v>
+      </c>
+      <c r="F3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="19.5" customHeight="1">
       <c r="A4" s="3">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D4" s="2">
         <v>20111</v>
       </c>
       <c r="E4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="19.5" customHeight="1">
+        <v>24</v>
+      </c>
+      <c r="F4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="19.5" customHeight="1">
       <c r="A5" s="3">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D5" s="2">
         <v>20103</v>
       </c>
       <c r="E5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="19.5" customHeight="1">
+        <v>18</v>
+      </c>
+      <c r="F5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="19.5" customHeight="1">
       <c r="A6" s="3">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D6" s="2">
         <v>20103</v>
       </c>
-      <c r="E6" t="s">
-        <v>16</v>
-      </c>
+      <c r="E6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -778,22 +882,22 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:E6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
   <cols>
-    <col min="2" max="2" width="39.1640625" style="7" customWidth="1"/>
-    <col min="3" max="3" width="73.83203125" style="7" customWidth="1"/>
-    <col min="4" max="4" width="16.83203125" style="7" customWidth="1"/>
-    <col min="5" max="5" width="19.1640625" style="7" customWidth="1"/>
+    <col min="2" max="2" width="39.125" style="7" customWidth="1"/>
+    <col min="3" max="3" width="73.875" style="7" customWidth="1"/>
+    <col min="4" max="4" width="16.875" style="7" customWidth="1"/>
+    <col min="5" max="5" width="19.125" style="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="5" customFormat="1" ht="18" customHeight="1">
+    <row r="1" spans="1:6" s="5" customFormat="1" ht="18" customHeight="1">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -810,77 +914,84 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="18" customHeight="1">
+    <row r="2" spans="1:6" ht="18" customHeight="1">
       <c r="A2" s="3">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D2" s="2">
         <v>10001</v>
       </c>
       <c r="E2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="18" customHeight="1">
+        <v>21</v>
+      </c>
+      <c r="F2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="18" customHeight="1">
       <c r="A3" s="3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D3" s="2">
         <v>20104</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" ht="18" customHeight="1">
+      <c r="E3" t="s">
+        <v>35</v>
+      </c>
+      <c r="F3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="18" customHeight="1">
       <c r="A4" s="3">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="D4" s="2">
         <v>20103</v>
       </c>
-      <c r="E4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="18" customHeight="1">
+      <c r="E4"/>
+    </row>
+    <row r="5" spans="1:6" ht="18" customHeight="1">
       <c r="A5" s="3">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="D5" s="2">
         <v>10001</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="18" customHeight="1">
+    <row r="6" spans="1:6" ht="18" customHeight="1">
       <c r="A6" s="3">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D6" s="2">
         <v>20117</v>
@@ -889,6 +1000,6 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/m7/Lemon_Tree/FurureLoan/utils/do_excel/test_case.xlsx
+++ b/m7/Lemon_Tree/FurureLoan/utils/do_excel/test_case.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="50">
   <si>
     <t>case_id</t>
   </si>
@@ -34,52 +34,73 @@
     <t>result</t>
   </si>
   <si>
-    <t>Unnamed: 5</t>
+    <t>is_success</t>
   </si>
   <si>
     <t>正确手机号和正确密码注册</t>
   </si>
   <si>
-    <t>{'mobilephone': '18611848260', 'pwd': 'nishi458', 'regname': '乐乐'}</t>
+    <t>{'mobilephone': '$(tel)', 'pwd': 'nishi458', 'regname': '乐乐'}</t>
+  </si>
+  <si>
+    <t>{'status': 1, 'code': '10001', 'data': None, 'msg': '注册成功'}</t>
+  </si>
+  <si>
+    <t>PASS</t>
+  </si>
+  <si>
+    <t>输入已注册的手机号注册</t>
+  </si>
+  <si>
+    <t>{'status': 0, 'code': '20110', 'data': None, 'msg': '手机号码已被注册'}</t>
+  </si>
+  <si>
+    <t>输入错误格式的手机号注册</t>
+  </si>
+  <si>
+    <t>{'mobilephone': '1861184828', 'pwd': 'nishi458', 'regname': '乐乐'}</t>
+  </si>
+  <si>
+    <t>{'status': 0, 'code': '20109', 'data': None, 'msg': '手机号码格式不正确'}</t>
+  </si>
+  <si>
+    <t>输入不足6位的密码</t>
+  </si>
+  <si>
+    <t>{'mobilephone': '$(tel)', 'pwd': '12345', 'regname': '乐乐'}</t>
+  </si>
+  <si>
+    <t>{'status': 0, 'code': '20108', 'data': None, 'msg': '密码长度必须为6~18'}</t>
+  </si>
+  <si>
+    <t>不输入用户名，不输入密码注册</t>
+  </si>
+  <si>
+    <t>{'mobilephone':'','pwd':'','regname':'乐乐'}</t>
+  </si>
+  <si>
+    <t>{'status': 0, 'code': '20103', 'data': None, 'msg': '手机号不能为空'}</t>
   </si>
   <si>
     <t>FAIL</t>
   </si>
   <si>
-    <t>输入已注册的手机号注册</t>
-  </si>
-  <si>
-    <t>PASS</t>
-  </si>
-  <si>
-    <t>输入错误格式的手机号注册</t>
-  </si>
-  <si>
-    <t>{'mobilephone': '1861184828', 'pwd': 'nishi458', 'regname': '乐乐'}</t>
-  </si>
-  <si>
-    <t>输入不足6位的密码</t>
-  </si>
-  <si>
-    <t>{'mobilephone': '13810504362', 'pwd': '123456', 'regname': '乐乐'}</t>
-  </si>
-  <si>
-    <t>不输入用户名，不输入密码注册</t>
-  </si>
-  <si>
-    <t>{'mobilephone':'','pwd':'','regname':'乐乐'}</t>
-  </si>
-  <si>
     <t>输入正确的用户名和密码登录</t>
   </si>
   <si>
-    <t>{'mobilephone': '18611848260', 'pwd': 'nishi458'}</t>
+    <t>{'mobilephone': '$(tel)', 'pwd': 'nishi458'}</t>
+  </si>
+  <si>
+    <t>{'status': 1, 'code': '10001', 'data': None, 'msg': '登录成功'}</t>
   </si>
   <si>
     <t>输入正确的用户名和错误的密码登录</t>
   </si>
   <si>
-    <t>{'mobilephone': '18611848260', 'pwd': 'nishi459'}</t>
+    <t>{'mobilephone': '$(tel)', 'pwd': 'nishi459'}</t>
+  </si>
+  <si>
+    <t>{'status': 0, 'code': '20111', 'data': None, 'msg': '用户名或密码错误'}</t>
   </si>
   <si>
     <t>输入错误的用户名和正确的密码登录</t>
@@ -91,7 +112,10 @@
     <t>只输入用户名登录</t>
   </si>
   <si>
-    <t>{'mobilephone': '1861184828', 'pwd': ''}</t>
+    <t>{'mobilephone': '$(tel)', 'pwd': ''}</t>
+  </si>
+  <si>
+    <t>{'status': 0, 'code': '20103', 'data': None, 'msg': '密码不能为空'}</t>
   </si>
   <si>
     <t>只输入密码登录</t>
@@ -103,13 +127,19 @@
     <t>正确手机号和正确金额充值</t>
   </si>
   <si>
-    <t>{'mobilephone': '18611848260', 'amount': '200000'}</t>
+    <t>{'mobilephone': '$(tel)', 'amount': '200000'}</t>
+  </si>
+  <si>
+    <t>{'status': 1, 'code': '10001', 'data': {'id': 1135260, 'regname': '乐乐', 'pwd': '425D8C1C393092A412E500B7D6D056EF', 'mobilephone': '18611848307', 'leaveamount': '200000.00', 'type': '1', 'regtime': '2019-03-29 15:44:42.0'}, 'msg': '充值成功'}</t>
   </si>
   <si>
     <t>输入不存在的手机号充值</t>
   </si>
   <si>
-    <t>{'mobilephone': '18611848261', 'amount': '200000'}</t>
+    <t>{'mobilephone': '13000500000', 'amount': '200000'}</t>
+  </si>
+  <si>
+    <t>{'status': 0, 'code': '20104', 'data': None, 'msg': '此手机号对应的会员不存在'}</t>
   </si>
   <si>
     <t>不输入手机号充值</t>
@@ -121,28 +151,29 @@
     <t>金额为0充值</t>
   </si>
   <si>
-    <t>{'mobilephone': '18611848260', 'amount': '0'}</t>
+    <t>{'mobilephone': '$(tel)', 'amount': '0'}</t>
   </si>
   <si>
     <t>金额为51万充值</t>
   </si>
   <si>
-    <t>{'mobilephone': '18611848260', 'amount': '510000'}</t>
+    <t>{'mobilephone': '$(tel)', 'amount': '510000'}</t>
+  </si>
+  <si>
+    <t>{'status': 0, 'code': '20117', 'data': None, 'msg': '请输入范围在0到50万之间的正数金额'}</t>
   </si>
   <si>
     <t>id</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>tel</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -162,6 +193,13 @@
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="2">
@@ -199,10 +237,32 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -573,9 +633,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="2" max="2" width="34.375" customWidth="1"/>
+    <col min="3" max="3" width="75.75" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.375" customWidth="1"/>
+    <col min="5" max="5" width="80.625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23.25" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
@@ -590,10 +659,10 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
     </row>
@@ -610,11 +679,11 @@
       <c r="D2">
         <v>10001</v>
       </c>
-      <c r="E2">
-        <v>20110</v>
+      <c r="E2" t="s">
+        <v>8</v>
       </c>
       <c r="F2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -622,7 +691,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C3" t="s">
         <v>7</v>
@@ -630,11 +699,11 @@
       <c r="D3">
         <v>20110</v>
       </c>
-      <c r="E3">
-        <v>20110</v>
+      <c r="E3" t="s">
+        <v>11</v>
       </c>
       <c r="F3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -642,19 +711,19 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D4">
         <v>20109</v>
       </c>
-      <c r="E4">
-        <v>20109</v>
+      <c r="E4" t="s">
+        <v>14</v>
       </c>
       <c r="F4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -662,19 +731,19 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C5" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D5">
         <v>20108</v>
       </c>
-      <c r="E5">
-        <v>20110</v>
+      <c r="E5" t="s">
+        <v>17</v>
       </c>
       <c r="F5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -682,24 +751,25 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C6" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D6">
         <v>20103</v>
       </c>
-      <c r="E6">
-        <v>20103</v>
+      <c r="E6" t="s">
+        <v>20</v>
       </c>
       <c r="F6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
 </file>
 
@@ -707,9 +777,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="2" max="2" width="33.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="54.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.25" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
@@ -725,9 +804,9 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
     </row>
@@ -736,19 +815,19 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D2">
         <v>10001</v>
       </c>
-      <c r="E2">
-        <v>10001</v>
+      <c r="E2" t="s">
+        <v>24</v>
       </c>
       <c r="F2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -756,19 +835,19 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="D3">
         <v>20111</v>
       </c>
-      <c r="E3">
-        <v>20111</v>
+      <c r="E3" t="s">
+        <v>27</v>
       </c>
       <c r="F3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -776,19 +855,19 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="C4" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="D4">
         <v>20111</v>
       </c>
-      <c r="E4">
-        <v>20111</v>
+      <c r="E4" t="s">
+        <v>27</v>
       </c>
       <c r="F4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -796,19 +875,19 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="C5" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="D5">
         <v>20103</v>
       </c>
-      <c r="E5">
-        <v>20103</v>
+      <c r="E5" t="s">
+        <v>32</v>
       </c>
       <c r="F5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -816,13 +895,19 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="C6" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="D6">
         <v>20103</v>
+      </c>
+      <c r="E6" t="s">
+        <v>20</v>
+      </c>
+      <c r="F6" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -835,9 +920,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="2" max="2" width="25.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="56" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="255.625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
@@ -853,9 +946,9 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
     </row>
@@ -864,19 +957,19 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="C2" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="D2">
         <v>10001</v>
       </c>
-      <c r="E2">
-        <v>10001</v>
+      <c r="E2" t="s">
+        <v>37</v>
       </c>
       <c r="F2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -884,19 +977,19 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="C3" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="D3">
         <v>20104</v>
       </c>
-      <c r="E3">
-        <v>20104</v>
+      <c r="E3" t="s">
+        <v>40</v>
       </c>
       <c r="F3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -904,13 +997,19 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="C4" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="D4">
         <v>20103</v>
+      </c>
+      <c r="E4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F4" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -918,13 +1017,19 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="C5" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="D5">
         <v>10001</v>
+      </c>
+      <c r="E5" t="s">
+        <v>37</v>
+      </c>
+      <c r="F5" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -932,49 +1037,288 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="C6" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="D6">
         <v>20117</v>
+      </c>
+      <c r="E6" t="s">
+        <v>47</v>
+      </c>
+      <c r="F6" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:N29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="2" max="2" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.625" style="4" customWidth="1"/>
+    <col min="2" max="2" width="12.75" style="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2">
+    <row r="1" spans="1:14">
+      <c r="A1" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
+      <c r="A2" s="4">
         <v>1</v>
       </c>
-      <c r="B2">
-        <v>18611848290</v>
-      </c>
+      <c r="B2" s="4">
+        <v>18611848308</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14">
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="7"/>
+      <c r="K9" s="7"/>
+      <c r="L9" s="7"/>
+      <c r="M9" s="7"/>
+      <c r="N9" s="7"/>
+    </row>
+    <row r="10" spans="1:14">
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="7"/>
+      <c r="J10" s="7"/>
+      <c r="K10" s="7"/>
+      <c r="L10" s="7"/>
+      <c r="M10" s="7"/>
+      <c r="N10" s="7"/>
+    </row>
+    <row r="11" spans="1:14">
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7"/>
+      <c r="I11" s="7"/>
+      <c r="J11" s="7"/>
+      <c r="K11" s="7"/>
+      <c r="L11" s="7"/>
+      <c r="M11" s="7"/>
+      <c r="N11" s="7"/>
+    </row>
+    <row r="12" spans="1:14">
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="5"/>
+      <c r="J12" s="5"/>
+      <c r="K12" s="7"/>
+      <c r="L12" s="7"/>
+      <c r="M12" s="7"/>
+      <c r="N12" s="7"/>
+    </row>
+    <row r="13" spans="1:14">
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="8"/>
+      <c r="J13" s="9"/>
+      <c r="K13" s="7"/>
+      <c r="L13" s="7"/>
+      <c r="M13" s="7"/>
+      <c r="N13" s="7"/>
+    </row>
+    <row r="14" spans="1:14">
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="9"/>
+      <c r="J14" s="9"/>
+      <c r="K14" s="7"/>
+      <c r="L14" s="7"/>
+      <c r="M14" s="7"/>
+      <c r="N14" s="7"/>
+    </row>
+    <row r="15" spans="1:14">
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="6"/>
+      <c r="J15" s="6"/>
+      <c r="K15" s="7"/>
+      <c r="L15" s="7"/>
+      <c r="M15" s="7"/>
+      <c r="N15" s="7"/>
+    </row>
+    <row r="16" spans="1:14">
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="5"/>
+      <c r="I16" s="6"/>
+      <c r="J16" s="6"/>
+      <c r="K16" s="7"/>
+      <c r="L16" s="7"/>
+      <c r="M16" s="7"/>
+      <c r="N16" s="7"/>
+    </row>
+    <row r="17" spans="6:14">
+      <c r="F17" s="7"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="7"/>
+      <c r="I17" s="7"/>
+      <c r="J17" s="7"/>
+      <c r="K17" s="7"/>
+      <c r="L17" s="7"/>
+      <c r="M17" s="7"/>
+      <c r="N17" s="7"/>
+    </row>
+    <row r="18" spans="6:14">
+      <c r="F18" s="7"/>
+      <c r="G18" s="7"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="5"/>
+      <c r="J18" s="5"/>
+      <c r="K18" s="7"/>
+      <c r="L18" s="7"/>
+      <c r="M18" s="7"/>
+      <c r="N18" s="7"/>
+    </row>
+    <row r="19" spans="6:14">
+      <c r="F19" s="7"/>
+      <c r="G19" s="7"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="9"/>
+      <c r="J19" s="9"/>
+      <c r="K19" s="7"/>
+      <c r="L19" s="7"/>
+      <c r="M19" s="7"/>
+      <c r="N19" s="7"/>
+    </row>
+    <row r="20" spans="6:14">
+      <c r="F20" s="7"/>
+      <c r="G20" s="7"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="9"/>
+      <c r="J20" s="9"/>
+      <c r="K20" s="7"/>
+      <c r="L20" s="7"/>
+      <c r="M20" s="7"/>
+      <c r="N20" s="7"/>
+    </row>
+    <row r="21" spans="6:14">
+      <c r="F21" s="7"/>
+      <c r="G21" s="7"/>
+      <c r="H21" s="7"/>
+      <c r="I21" s="7"/>
+      <c r="J21" s="7"/>
+      <c r="K21" s="7"/>
+      <c r="L21" s="7"/>
+      <c r="M21" s="7"/>
+      <c r="N21" s="7"/>
+    </row>
+    <row r="22" spans="6:14">
+      <c r="F22" s="7"/>
+      <c r="G22" s="7"/>
+      <c r="H22" s="7"/>
+      <c r="I22" s="7"/>
+      <c r="J22" s="7"/>
+      <c r="K22" s="7"/>
+      <c r="L22" s="7"/>
+      <c r="M22" s="7"/>
+      <c r="N22" s="7"/>
+    </row>
+    <row r="23" spans="6:14">
+      <c r="F23" s="7"/>
+      <c r="G23" s="7"/>
+      <c r="H23" s="7"/>
+      <c r="I23" s="7"/>
+      <c r="J23" s="7"/>
+      <c r="K23" s="7"/>
+      <c r="L23" s="7"/>
+      <c r="M23" s="7"/>
+      <c r="N23" s="7"/>
+    </row>
+    <row r="24" spans="6:14">
+      <c r="F24" s="7"/>
+      <c r="G24" s="7"/>
+      <c r="H24" s="7"/>
+      <c r="I24" s="7"/>
+      <c r="J24" s="7"/>
+      <c r="K24" s="7"/>
+      <c r="L24" s="7"/>
+      <c r="M24" s="7"/>
+      <c r="N24" s="7"/>
+    </row>
+    <row r="25" spans="6:14">
+      <c r="F25" s="7"/>
+      <c r="G25" s="7"/>
+      <c r="H25" s="7"/>
+      <c r="I25" s="7"/>
+      <c r="J25" s="7"/>
+      <c r="K25" s="7"/>
+      <c r="L25" s="7"/>
+      <c r="M25" s="7"/>
+      <c r="N25" s="7"/>
+    </row>
+    <row r="26" spans="6:14">
+      <c r="F26" s="7"/>
+      <c r="G26" s="7"/>
+      <c r="H26" s="7"/>
+      <c r="I26" s="7"/>
+      <c r="J26" s="7"/>
+      <c r="K26" s="7"/>
+      <c r="L26" s="7"/>
+      <c r="M26" s="7"/>
+      <c r="N26" s="7"/>
+    </row>
+    <row r="27" spans="6:14">
+      <c r="F27" s="7"/>
+      <c r="G27" s="7"/>
+      <c r="H27" s="7"/>
+      <c r="I27" s="7"/>
+      <c r="J27" s="7"/>
+      <c r="K27" s="7"/>
+      <c r="L27" s="7"/>
+      <c r="M27" s="7"/>
+      <c r="N27" s="7"/>
+    </row>
+    <row r="28" spans="6:14">
+      <c r="F28" s="7"/>
+      <c r="G28" s="7"/>
+      <c r="H28" s="7"/>
+      <c r="I28" s="7"/>
+      <c r="J28" s="7"/>
+      <c r="K28" s="7"/>
+      <c r="L28" s="7"/>
+      <c r="M28" s="7"/>
+      <c r="N28" s="7"/>
+    </row>
+    <row r="29" spans="6:14">
+      <c r="F29" s="7"/>
+      <c r="G29" s="7"/>
+      <c r="H29" s="7"/>
+      <c r="I29" s="7"/>
+      <c r="J29" s="7"/>
+      <c r="K29" s="7"/>
+      <c r="L29" s="7"/>
+      <c r="M29" s="7"/>
+      <c r="N29" s="7"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
